--- a/data/hotels_by_city/Houston/Houston_shard_155.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_155.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56723-d12553156-Reviews-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-By-Marriott-Houston-Sugar-LandLake-Pointe.h19218459.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530453111682&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=0a31ddca-a675-4e62-ac4b-d67397cb38f2&amp;mctc=9&amp;exp_dp=134&amp;exp_ts=1530453112210&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,132 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r588580962-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>12553156</t>
+  </si>
+  <si>
+    <t>588580962</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Great, Nearly New Hotel</t>
+  </si>
+  <si>
+    <t>We were attending a concert at Smart Financial Center and didn't want to drive the 70 miles home late at night, so stayed here.  This Courtyard by Marriott is 10 minutes from this venue.  Room was exquisitely clean, and everything worked well.  All the staff, front desk Bistro Dining and Housekeeping were helpful, efficient and friendly.  They genuinely appreciated our business.  Exercise facility on site, and location is near a tree-lined walking trail, lake.  Great to have the Bistro on site, if you don't want to drive to another restaurant.  We had dinner, which was excellent.  Many other restaurants over all price ranges are nearby.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r582935819-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>582935819</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Like to run along the lake, open the door</t>
+  </si>
+  <si>
+    <t>Sittting on a beautiful lake with shaded walking/jogging trails and 5 minutes from shopping, movies, restaurants would be enough but being able to sit out and eat on the Lake day or night is a bonus. I did my paperwork outdoors. Sitting and eating areas are shaded. The outdoor pool is on the lake also. In the evenings there is a fire pit. Wish they sold s’more supplies. Be sure to package and take your own. The double shower with the non slip shower was beautiful and of course the BED the awesome Marriott bed. Food offerings were good. The oatmeal bowl and the Brioche breakfast sandwich were my choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sittting on a beautiful lake with shaded walking/jogging trails and 5 minutes from shopping, movies, restaurants would be enough but being able to sit out and eat on the Lake day or night is a bonus. I did my paperwork outdoors. Sitting and eating areas are shaded. The outdoor pool is on the lake also. In the evenings there is a fire pit. Wish they sold s’more supplies. Be sure to package and take your own. The double shower with the non slip shower was beautiful and of course the BED the awesome Marriott bed. Food offerings were good. The oatmeal bowl and the Brioche breakfast sandwich were my choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r573527011-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>573527011</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Nice, new, easy to get to, comfy beds</t>
+  </si>
+  <si>
+    <t>Great price for a clean, comfy room in a great location. Room was very nice. The bed was very comfortable. The king room had a love seat and ottoman that could have slept another small adult or child. Bathroom had a large walk-in shower and plenty of counter space for us women. There is a Starbucks/bar/snack area downstairs (nothing free) wine and beer was quite expensive. Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r536658353-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>536658353</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Mixed review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff was friendly and our room was clean. The vent system forces you to hear other people’s conversations and the plumbing alerted you to when your neighbors flushed the toilet. The bed was very uncomfortable. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r531678791-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>531678791</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Brand New!</t>
+  </si>
+  <si>
+    <t>This hotel was not yet open 1 week when I stayed here the first week in October. I recommend this over the Marriott across the highway in citywalk because parking is easier and you have a lovely area outside to sit fireside in front of the lake. The rooms are large and the staff is friendly. It also has a kitchen for all three meals and they serve Starbucks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r528798547-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>528798547</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel in great location with great front desk service</t>
+  </si>
+  <si>
+    <t>Teejay, lola and daja were wonderful at front desk answering a few questions about the amenities nearby. They showed me where the nice places to eat around the hotel  and had staff bring extra towels in a prompt fashion.fatimah was awesome as well</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
 </sst>
 </file>
@@ -532,11 +664,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +696,439 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_155.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_155.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r599429995-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>12553156</t>
+  </si>
+  <si>
+    <t>599429995</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Great location, Great staff!</t>
+  </si>
+  <si>
+    <t>LOVE THIS HOTEL!!!  The location is great!  Very relaxing with a modern feel.  The price is just right for the accommodations.  The patio in the the back has a walking/jogging trail on a lake.  You can sit in the patio by the calm lake and read a good book.  Very clean &amp; maintained well.  Because I loved the property &amp; staff so much, we  decided to have my son’s graduation party at this venue.  It was perfect!  The GM, Ms. Melissa &amp; Ms. Jamie made our event memorable!  They were so easy to work with.  The price for the venue was very reasonable &amp; they catered to our requests!  The rest of the staff were warm, friendly, accommodating &amp; still professional.  Our guests loved everything and had a fun time! Although we had to have food catered, the location is close to a lot of nice restaurants, shopping, businesses &amp; grocery.  The food they offer onsite is bistro food which is also delectable while reasonable but not for huge parties.  I would DEFINITELY come back here again and recommend this hotel to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LOVE THIS HOTEL!!!  The location is great!  Very relaxing with a modern feel.  The price is just right for the accommodations.  The patio in the the back has a walking/jogging trail on a lake.  You can sit in the patio by the calm lake and read a good book.  Very clean &amp; maintained well.  Because I loved the property &amp; staff so much, we  decided to have my son’s graduation party at this venue.  It was perfect!  The GM, Ms. Melissa &amp; Ms. Jamie made our event memorable!  They were so easy to work with.  The price for the venue was very reasonable &amp; they catered to our requests!  The rest of the staff were warm, friendly, accommodating &amp; still professional.  Our guests loved everything and had a fun time! Although we had to have food catered, the location is close to a lot of nice restaurants, shopping, businesses &amp; grocery.  The food they offer onsite is bistro food which is also delectable while reasonable but not for huge parties.  I would DEFINITELY come back here again and recommend this hotel to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r593117968-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>593117968</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel in awesome spot</t>
+  </si>
+  <si>
+    <t>Recently stayed one night here to attend concert nearby. This hotel is next door to the Hyatt Place in the Lake Pointe area. It is in a really safe area. The hotel is nearly new as it was commissioned just last year. The self parking is free and the lobby is laid out perfectly with multiple chairs booths etc. there are multiple TVs in lobby with the booths each having their own. I stayed in an awesome king room. The layout and lighting was just about perfect. Their are microwaves and frig in room. My room had a very large walk in shower. One thing I am picky about is internet speed. This hotel had consistent 25M down and unusually fast 20M up speeds. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Recently stayed one night here to attend concert nearby. This hotel is next door to the Hyatt Place in the Lake Pointe area. It is in a really safe area. The hotel is nearly new as it was commissioned just last year. The self parking is free and the lobby is laid out perfectly with multiple chairs booths etc. there are multiple TVs in lobby with the booths each having their own. I stayed in an awesome king room. The layout and lighting was just about perfect. Their are microwaves and frig in room. My room had a very large walk in shower. One thing I am picky about is internet speed. This hotel had consistent 25M down and unusually fast 20M up speeds. Would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r588580962-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
   </si>
   <si>
-    <t>56723</t>
-  </si>
-  <si>
-    <t>12553156</t>
-  </si>
-  <si>
     <t>588580962</t>
   </si>
   <si>
@@ -171,9 +216,6 @@
     <t>We were attending a concert at Smart Financial Center and didn't want to drive the 70 miles home late at night, so stayed here.  This Courtyard by Marriott is 10 minutes from this venue.  Room was exquisitely clean, and everything worked well.  All the staff, front desk Bistro Dining and Housekeeping were helpful, efficient and friendly.  They genuinely appreciated our business.  Exercise facility on site, and location is near a tree-lined walking trail, lake.  Great to have the Bistro on site, if you don't want to drive to another restaurant.  We had dinner, which was excellent.  Many other restaurants over all price ranges are nearby.</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -219,6 +261,36 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r573477110-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>573477110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here to attend an event at the Smart Financial Centre and it was really convenient. Just a mile or two from lots of restaurants - Uber shows up within 5 minutes. Still has the new carpet smell - very clean and staff were very friendly. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r551442344-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>551442344</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Quiet, clean, well-designed &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>Multiple-day stay over the holidays meant we had time to get to know the friendly staff, enjoy both the in-room coffee/tea and the Starbucks in the lobby (which also serves some food and adult beverages), and appreciate the convenient location. Great for individuals, couples and families. Only wish the weather would have been better to try out the outdoor patio and pool!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r536658353-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -271,6 +343,21 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d12553156-r528672624-Courtyard_Houston_Sugar_Land_Lake_Pointe-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>528672624</t>
+  </si>
+  <si>
+    <t>Weekend business stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a lecture . At check in they wanted to give me a first floor room but there was a loud wedding and graciously upgraded me to the fourth floor for peace and quiet.  All front desk staff courteous . The room had a strong mildew / damp smell possibly from the hurricane. The solution was apple cinnamon air freshener. Found several stray hairs in the room. The major issue I had here was the Starbucks / bar / restaurant opened at 7 closed at 10. I needed early morning coffee. I wanted a glass of wine but both nights already closed . Came back from work couldn't get coffee / snack because "someone took the key home". Usually Courtyards are a bit more convenient but may have been an off weekend. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a lecture . At check in they wanted to give me a first floor room but there was a loud wedding and graciously upgraded me to the fourth floor for peace and quiet.  All front desk staff courteous . The room had a strong mildew / damp smell possibly from the hurricane. The solution was apple cinnamon air freshener. Found several stray hairs in the room. The major issue I had here was the Starbucks / bar / restaurant opened at 7 closed at 10. I needed early morning coffee. I wanted a glass of wine but both nights already closed . Came back from work couldn't get coffee / snack because "someone took the key home". Usually Courtyards are a bit more convenient but may have been an off weekend. More</t>
   </si>
 </sst>
 </file>
@@ -815,23 +902,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -847,7 +928,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -856,25 +937,25 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -925,20 +1006,26 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -982,13 +1069,13 @@
         <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1002,7 +1089,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1105,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1027,45 +1114,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1081,7 +1162,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1090,45 +1171,336 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>80</v>
       </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66432</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
